--- a/R1_test_command_list_V2.0_for_2.1.12.xlsx
+++ b/R1_test_command_list_V2.0_for_2.1.12.xlsx
@@ -1152,10 +1152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>adb shell /etc/factory-test/r1/button_f_c+D13+D2:D+D2:D44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>adb shell /etc/factory-test/r1/connect_wifi.sh office_wifi 1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1208,6 +1204,10 @@
   <si>
     <t>adb shell /etc/factory-test/r1/record_play.sh &lt;recording time&gt; 
   &lt;song.wav&gt;  &lt;volume value&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/r1/button_f_check.sh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1530,6 +1530,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1538,24 +1556,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1916,7 +1916,7 @@
         <v>68</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>9</v>
@@ -1936,7 +1936,7 @@
         <v>102</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>161</v>
@@ -2024,7 +2024,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>11</v>
@@ -2208,7 +2208,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>5</v>
@@ -2230,7 +2230,7 @@
         <v>213</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>8</v>
@@ -2250,7 +2250,7 @@
         <v>228</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>229</v>
@@ -2258,7 +2258,7 @@
       <c r="F18" s="31"/>
       <c r="G18" s="17"/>
       <c r="H18" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -2270,7 +2270,7 @@
         <v>230</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>231</v>
@@ -2278,7 +2278,7 @@
       <c r="F19" s="31"/>
       <c r="G19" s="17"/>
       <c r="H19" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -2314,7 +2314,7 @@
         <v>241</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E21" s="22" t="s">
         <v>242</v>
@@ -2322,7 +2322,7 @@
       <c r="F21" s="21"/>
       <c r="G21" s="17"/>
       <c r="H21" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2616,7 +2616,7 @@
         <v>135</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E35" s="22" t="s">
         <v>111</v>
@@ -2660,7 +2660,7 @@
         <v>123</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E37" s="22" t="s">
         <v>243</v>
@@ -2874,7 +2874,7 @@
         <v>250</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E47" s="22" t="s">
         <v>162</v>
@@ -3057,25 +3057,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>171</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="36" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="39"/>
+      <c r="A2" s="41"/>
       <c r="B2" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="36"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -3083,19 +3083,19 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="39"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="7" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="39"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="6" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>170</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -3103,28 +3103,28 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="39"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="6" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="41" t="s">
         <v>169</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="36" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="39"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C9" s="40"/>
+      <c r="C9" s="36"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="30" t="s">
@@ -3135,315 +3135,315 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="42" t="s">
         <v>167</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="36" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="36"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C12" s="40"/>
+      <c r="C12" s="36"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="42" t="s">
         <v>176</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="36" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="36"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="40"/>
+      <c r="C14" s="36"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="43" t="s">
         <v>173</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="36" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="38"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C16" s="44"/>
+      <c r="C16" s="40"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="42" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="36"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C18" s="42"/>
+      <c r="C18" s="38"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="36"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C19" s="42"/>
+      <c r="C19" s="38"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="36"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C20" s="42"/>
+      <c r="C20" s="38"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="36"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C21" s="42"/>
+      <c r="C21" s="38"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="36"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C22" s="42"/>
+      <c r="C22" s="38"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="36"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C23" s="42"/>
+      <c r="C23" s="38"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="36"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="42"/>
+      <c r="C24" s="38"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="42" t="s">
         <v>189</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C25" s="42"/>
+      <c r="C25" s="38"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="36"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C26" s="42"/>
+      <c r="C26" s="38"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="36"/>
+      <c r="A27" s="42"/>
       <c r="B27" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C27" s="42"/>
+      <c r="C27" s="38"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="36"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C28" s="42"/>
+      <c r="C28" s="38"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="36"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C29" s="42"/>
+      <c r="C29" s="38"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="36"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C30" s="42"/>
+      <c r="C30" s="38"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="36"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C31" s="42"/>
+      <c r="C31" s="38"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="36"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C32" s="42"/>
+      <c r="C32" s="38"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="42"/>
+      <c r="C33" s="38"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="36"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="42"/>
+      <c r="C34" s="38"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="36"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="42"/>
+      <c r="C35" s="38"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="36"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="42"/>
+      <c r="C36" s="38"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="36"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="42"/>
+      <c r="C37" s="38"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="36"/>
+      <c r="A38" s="42"/>
       <c r="B38" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="42"/>
+      <c r="C38" s="38"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="36"/>
+      <c r="A39" s="42"/>
       <c r="B39" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="42"/>
+      <c r="C39" s="38"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="36"/>
+      <c r="A40" s="42"/>
       <c r="B40" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="42"/>
+      <c r="C40" s="38"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="42" t="s">
         <v>35</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="42"/>
+      <c r="C41" s="38"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="36"/>
+      <c r="A42" s="42"/>
       <c r="B42" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="42"/>
+      <c r="C42" s="38"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="36"/>
+      <c r="A43" s="42"/>
       <c r="B43" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="42"/>
+      <c r="C43" s="38"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="36"/>
+      <c r="A44" s="42"/>
       <c r="B44" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="42"/>
+      <c r="C44" s="38"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="36"/>
+      <c r="A45" s="42"/>
       <c r="B45" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="42"/>
+      <c r="C45" s="38"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" s="36"/>
+      <c r="A46" s="42"/>
       <c r="B46" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="42"/>
+      <c r="C46" s="38"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="36"/>
+      <c r="A47" s="42"/>
       <c r="B47" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="42"/>
+      <c r="C47" s="38"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" s="36"/>
+      <c r="A48" s="42"/>
       <c r="B48" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="43"/>
+      <c r="C48" s="39"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="C17:C48"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
